--- a/data/trans_orig/Q4505_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q4505_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>67331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51204</v>
+        <v>54013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84468</v>
+        <v>84312</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1362795173641933</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1036381860954423</v>
+        <v>0.1093239375060427</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1709664809688322</v>
+        <v>0.1706490772153073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -764,19 +764,19 @@
         <v>62540</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49484</v>
+        <v>49661</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78400</v>
+        <v>79852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.133777613530391</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1058513094668958</v>
+        <v>0.1062292111802879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1677037867854551</v>
+        <v>0.1708100935011057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -785,19 +785,19 @@
         <v>129870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110273</v>
+        <v>108790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151328</v>
+        <v>151428</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1350631384426838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1146818903502353</v>
+        <v>0.1131393873699253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1573788523229994</v>
+        <v>0.1574824298858028</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>117502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98766</v>
+        <v>100106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136814</v>
+        <v>138781</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2378281271830908</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1999058700281808</v>
+        <v>0.2026170404743804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.276916094811928</v>
+        <v>0.2808974311094793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -835,19 +835,19 @@
         <v>107845</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90447</v>
+        <v>90584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124840</v>
+        <v>127657</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.230688874310063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1934749314154035</v>
+        <v>0.1937672032444256</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2670438414137111</v>
+        <v>0.2730702512060885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>227</v>
@@ -856,19 +856,19 @@
         <v>225347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>199700</v>
+        <v>201842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>251657</v>
+        <v>252097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2343571557601485</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2076847076921556</v>
+        <v>0.2099125916310453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2617196041527797</v>
+        <v>0.2621769774771386</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>219004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>195448</v>
+        <v>198585</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>240252</v>
+        <v>240754</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4432703741060086</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3955920438634441</v>
+        <v>0.4019427044665794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.486277189523861</v>
+        <v>0.4872929513519346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>219</v>
@@ -906,19 +906,19 @@
         <v>205420</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>183858</v>
+        <v>184590</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>226043</v>
+        <v>225962</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4394110669389838</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3932892088159272</v>
+        <v>0.3948550736039615</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.483526076874033</v>
+        <v>0.4833532482886469</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>443</v>
@@ -927,19 +927,19 @@
         <v>424424</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>390617</v>
+        <v>392227</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>452116</v>
+        <v>453216</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4413940510330848</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4062355617439101</v>
+        <v>0.4079096475407114</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4701936068529072</v>
+        <v>0.4713373832518848</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>36539</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26308</v>
+        <v>26374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49437</v>
+        <v>48679</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07395571486231767</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05324812081745536</v>
+        <v>0.05338139316335935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1000617503038596</v>
+        <v>0.09852701191783624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -977,19 +977,19 @@
         <v>44032</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33273</v>
+        <v>32001</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57591</v>
+        <v>58112</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09418788248972809</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07117434055993263</v>
+        <v>0.0684521399579827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1231929840987864</v>
+        <v>0.1243064625564591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -998,19 +998,19 @@
         <v>80571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64742</v>
+        <v>65477</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97036</v>
+        <v>98847</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08379221693163531</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06733022069100905</v>
+        <v>0.06809547689037773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1009155990786318</v>
+        <v>0.1027992518249658</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>53688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42191</v>
+        <v>40894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67873</v>
+        <v>70172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1086662664843897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08539644965568322</v>
+        <v>0.08277028976432589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1373775626618369</v>
+        <v>0.1420293968961959</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -1048,19 +1048,19 @@
         <v>47653</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35586</v>
+        <v>36809</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60988</v>
+        <v>61660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1019345627308341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0761210441146551</v>
+        <v>0.07873774396834356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1304585333118708</v>
+        <v>0.1318959541245735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>104</v>
@@ -1069,19 +1069,19 @@
         <v>101341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83648</v>
+        <v>83489</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>121320</v>
+        <v>123060</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1053934378324477</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08699298843676739</v>
+        <v>0.08682735447077931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.126170513194093</v>
+        <v>0.1279808391688823</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>96746</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79434</v>
+        <v>78869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119022</v>
+        <v>117099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1317154243377731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1081461537267428</v>
+        <v>0.1073775166849118</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1620441519595506</v>
+        <v>0.1594259792737911</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -1194,19 +1194,19 @@
         <v>114269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97035</v>
+        <v>93993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135621</v>
+        <v>136093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1833114074346749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1556641935749417</v>
+        <v>0.1507846770124485</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2175640804539736</v>
+        <v>0.2183217688746902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>200</v>
@@ -1215,19 +1215,19 @@
         <v>211015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184372</v>
+        <v>183578</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239546</v>
+        <v>238245</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1554018082549436</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1357806620732563</v>
+        <v>0.1351959465335777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1764135805195244</v>
+        <v>0.1754552829407583</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>163889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>141013</v>
+        <v>142814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>187657</v>
+        <v>186971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2231280503184649</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1919840606972641</v>
+        <v>0.1944353529327848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2554877169578514</v>
+        <v>0.2545537334482216</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1265,19 +1265,19 @@
         <v>139734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118912</v>
+        <v>117344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161268</v>
+        <v>161232</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2241612222673309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1907598677612989</v>
+        <v>0.1882443974209871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2587074284531496</v>
+        <v>0.258649169123191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>298</v>
@@ -1286,19 +1286,19 @@
         <v>303622</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>273919</v>
+        <v>274712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>336288</v>
+        <v>338405</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2236023528894098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2017269938095311</v>
+        <v>0.2023114668506313</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.247658859671517</v>
+        <v>0.249217624479855</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>363898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>338385</v>
+        <v>334801</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>393488</v>
+        <v>391848</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4954321067725846</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.46069698935837</v>
+        <v>0.4558177148998456</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5357181379342886</v>
+        <v>0.5334850030756974</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>253</v>
@@ -1336,19 +1336,19 @@
         <v>266901</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>240648</v>
+        <v>240674</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>290643</v>
+        <v>292541</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.428164190283838</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3860487427837805</v>
+        <v>0.3860896018189139</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.466250852677067</v>
+        <v>0.4692947922619927</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>597</v>
@@ -1357,19 +1357,19 @@
         <v>630799</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>593902</v>
+        <v>591165</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>667451</v>
+        <v>666798</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4645511427977691</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4373785368519419</v>
+        <v>0.4353628471909398</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4915432849758096</v>
+        <v>0.4910626836108209</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>55894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41743</v>
+        <v>40134</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73082</v>
+        <v>73317</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07609775891586135</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05683163352453557</v>
+        <v>0.05464037558224462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09949760673948344</v>
+        <v>0.09981818423361107</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1407,19 +1407,19 @@
         <v>59674</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45081</v>
+        <v>46569</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75729</v>
+        <v>77133</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09572974396069248</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07231909017375256</v>
+        <v>0.07470566200908989</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1214852900768514</v>
+        <v>0.1237378806647857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -1428,19 +1428,19 @@
         <v>115569</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95425</v>
+        <v>97435</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137872</v>
+        <v>140817</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08511029646078394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07027591242892828</v>
+        <v>0.07175591559203666</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1015356572311415</v>
+        <v>0.1037041252823891</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>54079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40649</v>
+        <v>40108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70477</v>
+        <v>70751</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07362665965531603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05534167430608042</v>
+        <v>0.05460503188263157</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09595093358687584</v>
+        <v>0.09632465109414341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -1478,19 +1478,19 @@
         <v>42783</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31333</v>
+        <v>30294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56234</v>
+        <v>55977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06863343605346388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05026419295932309</v>
+        <v>0.04859719483671162</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09021110463241164</v>
+        <v>0.08979788567973399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -1499,19 +1499,19 @@
         <v>96863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76858</v>
+        <v>79205</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117753</v>
+        <v>118777</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07133439959709362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05660222576702309</v>
+        <v>0.05833060497788618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08671881334223311</v>
+        <v>0.08747279287621053</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>135405</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115274</v>
+        <v>115512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158364</v>
+        <v>156157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.212349967340163</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1807790278195081</v>
+        <v>0.1811537286961537</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2483566103072448</v>
+        <v>0.2448943516718751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -1624,19 +1624,19 @@
         <v>146134</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124891</v>
+        <v>124866</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170944</v>
+        <v>167168</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2118668255328454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1810692931150112</v>
+        <v>0.1810325015469322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2478365813569765</v>
+        <v>0.2423617997883803</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>265</v>
@@ -1645,19 +1645,19 @@
         <v>281539</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>248006</v>
+        <v>251777</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>311133</v>
+        <v>314534</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2120989157541135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1868366384215588</v>
+        <v>0.1896777976061303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.234393796222849</v>
+        <v>0.2369556455612222</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>189525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167417</v>
+        <v>169850</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213743</v>
+        <v>215841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2972241768628206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2625540473461294</v>
+        <v>0.2663692310287484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3352047352722021</v>
+        <v>0.3384947113335941</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>167</v>
@@ -1695,19 +1695,19 @@
         <v>176090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153099</v>
+        <v>156759</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201638</v>
+        <v>201899</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2552983120752779</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2219646816438796</v>
+        <v>0.2272706889306845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2923372365642409</v>
+        <v>0.2927158792321944</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>349</v>
@@ -1716,19 +1716,19 @@
         <v>365615</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>332124</v>
+        <v>332586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>399791</v>
+        <v>399555</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2754385340308652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2502078597275476</v>
+        <v>0.2505552673157193</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3011851435528132</v>
+        <v>0.3010069624023476</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>246623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>223593</v>
+        <v>222897</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>272612</v>
+        <v>270733</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3867687543377294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3506514856066177</v>
+        <v>0.3495600553161697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4275269979218705</v>
+        <v>0.424579770452735</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>290</v>
@@ -1766,19 +1766,19 @@
         <v>300670</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>275254</v>
+        <v>273548</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>329069</v>
+        <v>324630</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4359159202622677</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3990663803583001</v>
+        <v>0.3965932386715427</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4770889695187164</v>
+        <v>0.4706523737154824</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>530</v>
@@ -1787,19 +1787,19 @@
         <v>547294</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>512669</v>
+        <v>508520</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>588194</v>
+        <v>586716</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4123067511914753</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3862223953208285</v>
+        <v>0.3830961905460294</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4431189986071191</v>
+        <v>0.4420060092138922</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>28257</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18163</v>
+        <v>19085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40678</v>
+        <v>40015</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04431506341952811</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02848406523602853</v>
+        <v>0.02993093580866414</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0637936141779655</v>
+        <v>0.06275474070686275</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1837,19 +1837,19 @@
         <v>35238</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25286</v>
+        <v>25956</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48224</v>
+        <v>50091</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05108902643424735</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03666025507369561</v>
+        <v>0.0376317517412896</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06991616109237929</v>
+        <v>0.0726225526096987</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -1858,19 +1858,19 @@
         <v>63496</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50059</v>
+        <v>48375</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83706</v>
+        <v>79923</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04783497027281258</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0377124963899417</v>
+        <v>0.03644377552189829</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06306052164874042</v>
+        <v>0.0602101141360387</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>37839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26238</v>
+        <v>26410</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53308</v>
+        <v>50846</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05934203803975895</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04114875704612661</v>
+        <v>0.04141836634260924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0836015125482083</v>
+        <v>0.07973926482948365</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -1908,19 +1908,19 @@
         <v>31611</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21834</v>
+        <v>21824</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45825</v>
+        <v>44738</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04582991569536164</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03165467797891506</v>
+        <v>0.03164108760946922</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06643817863895343</v>
+        <v>0.06486212339832652</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -1929,19 +1929,19 @@
         <v>69450</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54697</v>
+        <v>53964</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87336</v>
+        <v>86617</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05232082875073339</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.041205988894381</v>
+        <v>0.04065378294653316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06579483288386578</v>
+        <v>0.06525312267089289</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>108521</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90383</v>
+        <v>89858</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129690</v>
+        <v>128013</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2090361936068656</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.174098681891745</v>
+        <v>0.1730873364012577</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2498143455888727</v>
+        <v>0.246583154142243</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -2054,19 +2054,19 @@
         <v>129388</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110665</v>
+        <v>110069</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>148826</v>
+        <v>148208</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2518584592829241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2154131290090828</v>
+        <v>0.2142528826773315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2896952416601934</v>
+        <v>0.2884917280541441</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>229</v>
@@ -2075,19 +2075,19 @@
         <v>237909</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>213821</v>
+        <v>211460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>266265</v>
+        <v>266599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2303351023100317</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2070141619615702</v>
+        <v>0.2047282509380616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2577890670888172</v>
+        <v>0.2581122811384464</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>153255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>133278</v>
+        <v>133422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>177065</v>
+        <v>176301</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2952047110377163</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2567241164397276</v>
+        <v>0.2570022678117285</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.341070039271509</v>
+        <v>0.3395984042057596</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>130</v>
@@ -2125,19 +2125,19 @@
         <v>136754</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>117384</v>
+        <v>118252</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>159524</v>
+        <v>158929</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2661961974034567</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2284914520200554</v>
+        <v>0.230181766478541</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3105192880206508</v>
+        <v>0.3093611517833964</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>273</v>
@@ -2146,19 +2146,19 @@
         <v>290008</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>262069</v>
+        <v>257894</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>319577</v>
+        <v>319719</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2807764767125045</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2537268496385349</v>
+        <v>0.2496847389130167</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3094034216554871</v>
+        <v>0.3095411765645737</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>192654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>168739</v>
+        <v>168532</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>216333</v>
+        <v>213522</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3710962834157303</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3250318972287963</v>
+        <v>0.3246323948277212</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4167078448643237</v>
+        <v>0.4112936665409337</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>200</v>
@@ -2196,19 +2196,19 @@
         <v>202736</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>182958</v>
+        <v>179881</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>224848</v>
+        <v>223831</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3946323255152093</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3561336019287641</v>
+        <v>0.3501452808777751</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4376740070817147</v>
+        <v>0.43569430545439</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>379</v>
@@ -2217,19 +2217,19 @@
         <v>395389</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>364864</v>
+        <v>363052</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>428315</v>
+        <v>427726</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3828026236571095</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3532491824574652</v>
+        <v>0.3514946598061562</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4146804311840269</v>
+        <v>0.4141101107566401</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>24343</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14568</v>
+        <v>16196</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35819</v>
+        <v>35435</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04689040227083312</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02806138222054368</v>
+        <v>0.03119823981527019</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06899556207674377</v>
+        <v>0.06825657654390974</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -2267,19 +2267,19 @@
         <v>19876</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12355</v>
+        <v>11629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30425</v>
+        <v>30266</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03868934633478635</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02404922405394627</v>
+        <v>0.02263675516735183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05922312454183299</v>
+        <v>0.05891303077726397</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -2288,19 +2288,19 @@
         <v>44219</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32780</v>
+        <v>32521</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>58515</v>
+        <v>60842</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0428113667762428</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0317363374623742</v>
+        <v>0.03148549646511383</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05665229685376589</v>
+        <v>0.05890544414897975</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>40375</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28363</v>
+        <v>29896</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52615</v>
+        <v>55139</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07777240966885475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05463321508667232</v>
+        <v>0.05758645754976367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1013489353548442</v>
+        <v>0.1062100387646949</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2338,19 +2338,19 @@
         <v>24980</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16881</v>
+        <v>15937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36734</v>
+        <v>35518</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04862367146362361</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03285944944423896</v>
+        <v>0.03102134816124104</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07150332319079306</v>
+        <v>0.06913720198946005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>61</v>
@@ -2359,19 +2359,19 @@
         <v>65355</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50836</v>
+        <v>51018</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>82238</v>
+        <v>82871</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0632744305441114</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04921778669750689</v>
+        <v>0.04939412411619026</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07962028934498758</v>
+        <v>0.08023321084695834</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>123553</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>104916</v>
+        <v>106906</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>141106</v>
+        <v>142407</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3194974630998805</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.271303147396899</v>
+        <v>0.2764510188016759</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3648885253161475</v>
+        <v>0.3682524628121419</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>112</v>
@@ -2484,19 +2484,19 @@
         <v>115662</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>97628</v>
+        <v>97987</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>135132</v>
+        <v>134403</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2877881684677747</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2429164746837673</v>
+        <v>0.2438092452654374</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3362330151018859</v>
+        <v>0.3344173227294869</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>236</v>
@@ -2505,19 +2505,19 @@
         <v>239215</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>211995</v>
+        <v>213598</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>264889</v>
+        <v>267410</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3033374130745199</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2688213670782529</v>
+        <v>0.2708528324774944</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3358934275823708</v>
+        <v>0.3390895895825702</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>85144</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69687</v>
+        <v>69857</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>101374</v>
+        <v>101965</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2201761940011842</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1802051204135494</v>
+        <v>0.1806436902151318</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2621441423837129</v>
+        <v>0.2636740036203663</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>118</v>
@@ -2555,19 +2555,19 @@
         <v>118541</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>101452</v>
+        <v>100236</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>136670</v>
+        <v>137207</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2949496195301169</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.252431227243373</v>
+        <v>0.2494043407707457</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3400585642231995</v>
+        <v>0.3413942920173875</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>206</v>
@@ -2576,19 +2576,19 @@
         <v>203685</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178528</v>
+        <v>178824</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>227267</v>
+        <v>230832</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2582830743696826</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2263826045692112</v>
+        <v>0.2267583151000724</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2881859440835783</v>
+        <v>0.292706738521636</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>128732</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>110626</v>
+        <v>111286</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>148997</v>
+        <v>147061</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.33289116092654</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2860698249687182</v>
+        <v>0.2877750914944645</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3852934605583079</v>
+        <v>0.3802876100063891</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>129</v>
@@ -2626,19 +2626,19 @@
         <v>132718</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>114413</v>
+        <v>115222</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>150847</v>
+        <v>151796</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3302250441722514</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2846803257764832</v>
+        <v>0.2866923241602084</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3753336481290314</v>
+        <v>0.377694305568031</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>259</v>
@@ -2647,19 +2647,19 @@
         <v>261450</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>235667</v>
+        <v>236710</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>289368</v>
+        <v>289383</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3315324242967086</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2988382157003052</v>
+        <v>0.3001603448780429</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3669339761083883</v>
+        <v>0.3669525693416849</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>15813</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9414</v>
+        <v>9766</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25859</v>
+        <v>26412</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04089137814214684</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02434411191703512</v>
+        <v>0.02525302119020262</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06687006802397005</v>
+        <v>0.06830050594906674</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2697,19 +2697,19 @@
         <v>9343</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4520</v>
+        <v>4387</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18184</v>
+        <v>17008</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02324816491426293</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01124561215742376</v>
+        <v>0.01091555609545085</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04524588365071449</v>
+        <v>0.04231894662777152</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -2718,19 +2718,19 @@
         <v>25157</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>16311</v>
+        <v>16451</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>35895</v>
+        <v>36829</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0318998439034121</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.020683073897377</v>
+        <v>0.02086116014148058</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04551669460358723</v>
+        <v>0.04670087538337982</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>33467</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23875</v>
+        <v>23839</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>45059</v>
+        <v>45113</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08654380383024847</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06173751799945461</v>
+        <v>0.06164485486422695</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1165181288095719</v>
+        <v>0.1166573930336188</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -2768,19 +2768,19 @@
         <v>25637</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17688</v>
+        <v>16998</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37557</v>
+        <v>36506</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06378900291559406</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04401204842979119</v>
+        <v>0.0422949149480271</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09344943638177335</v>
+        <v>0.09083263202852147</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>61</v>
@@ -2789,19 +2789,19 @@
         <v>59104</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>45457</v>
+        <v>45891</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>75602</v>
+        <v>73954</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07494724435567666</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05764167653136436</v>
+        <v>0.05819191569952337</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09586679646525717</v>
+        <v>0.09377760685742993</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>95691</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>80992</v>
+        <v>80038</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>112346</v>
+        <v>109790</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.327054934550459</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2768183137914257</v>
+        <v>0.2735572494228439</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3839806201442675</v>
+        <v>0.375242550611616</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>127</v>
@@ -2914,19 +2914,19 @@
         <v>117224</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>101206</v>
+        <v>102044</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>133804</v>
+        <v>134993</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3418277677883795</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2951182264720872</v>
+        <v>0.2975604543036811</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3901747434850782</v>
+        <v>0.3936403210040045</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>224</v>
@@ -2935,19 +2935,19 @@
         <v>212915</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>191397</v>
+        <v>190206</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>237192</v>
+        <v>234348</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3350265651837505</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3011668161695819</v>
+        <v>0.2992926168154817</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3732269255717276</v>
+        <v>0.3687518294685894</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>73962</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>60060</v>
+        <v>60072</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>88504</v>
+        <v>88857</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2527881136619228</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2052744624832021</v>
+        <v>0.2053149913168631</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3024911967446645</v>
+        <v>0.3036989806983843</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>72</v>
@@ -2985,19 +2985,19 @@
         <v>66180</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>53447</v>
+        <v>53774</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>81572</v>
+        <v>81627</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1929828667823346</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1558527742412791</v>
+        <v>0.1568060451856944</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.237866170937245</v>
+        <v>0.2380265162546366</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>151</v>
@@ -3006,19 +3006,19 @@
         <v>140142</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>122104</v>
+        <v>121175</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>161755</v>
+        <v>161751</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2205163530335603</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1921326412854658</v>
+        <v>0.1906719831444769</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2545245093924189</v>
+        <v>0.2545192692875404</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>88652</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>72821</v>
+        <v>74535</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>104254</v>
+        <v>106836</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3029992324858723</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2488891720625036</v>
+        <v>0.2547474356042432</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3563225334905562</v>
+        <v>0.3651466612637831</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>122</v>
@@ -3056,19 +3056,19 @@
         <v>112296</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>95972</v>
+        <v>96029</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>127176</v>
+        <v>127804</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.327457088918138</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2798546022638909</v>
+        <v>0.2800215237067764</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3708464632160918</v>
+        <v>0.372678536885713</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>212</v>
@@ -3077,19 +3077,19 @@
         <v>200949</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>180279</v>
+        <v>180066</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>225954</v>
+        <v>222336</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.316197039190928</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2836724308414204</v>
+        <v>0.2833382499920317</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3555440562027921</v>
+        <v>0.3498512354503892</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>2727</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7480</v>
+        <v>8055</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009320391745085836</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002755990065194731</v>
+        <v>0.002732552221418628</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02556376683378753</v>
+        <v>0.02753099773222027</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -3127,19 +3127,19 @@
         <v>8643</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4027</v>
+        <v>3945</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15319</v>
+        <v>15407</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02520184973107247</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01174220863270505</v>
+        <v>0.01150358137543698</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04467064028863051</v>
+        <v>0.04492676384348271</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>12</v>
@@ -3148,19 +3148,19 @@
         <v>11370</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5927</v>
+        <v>6004</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>19309</v>
+        <v>20721</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01789025203819807</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009326936787529239</v>
+        <v>0.009447190715249455</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03038282351973238</v>
+        <v>0.03260425293640734</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>31551</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>22791</v>
+        <v>22514</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>43127</v>
+        <v>43104</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.10783732755666</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07789685476347626</v>
+        <v>0.0769477190587196</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1474001981436862</v>
+        <v>0.1473239610352842</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>41</v>
@@ -3198,19 +3198,19 @@
         <v>38591</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>29138</v>
+        <v>28452</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>51493</v>
+        <v>50444</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1125304267800754</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08496611794548259</v>
+        <v>0.08296589924288474</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1501553372944421</v>
+        <v>0.1470953620532442</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>75</v>
@@ -3219,19 +3219,19 @@
         <v>70142</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>54708</v>
+        <v>56442</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>84366</v>
+        <v>85916</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1103697905535632</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08608439583409348</v>
+        <v>0.08881303452218098</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1327520470457995</v>
+        <v>0.1351908808417956</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>97237</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>83273</v>
+        <v>82157</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>112207</v>
+        <v>110753</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4652776654701155</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3984625406597586</v>
+        <v>0.3931194664337109</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5369083622049783</v>
+        <v>0.5299493611725696</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>113</v>
@@ -3344,19 +3344,19 @@
         <v>131359</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>112697</v>
+        <v>113068</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>150274</v>
+        <v>150201</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3948549946055655</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3387571274136764</v>
+        <v>0.3398722367394434</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4517121089589166</v>
+        <v>0.4514930380682979</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>214</v>
@@ -3365,19 +3365,19 @@
         <v>228596</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>206136</v>
+        <v>205619</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>251060</v>
+        <v>253382</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4220257637318199</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.38056067380928</v>
+        <v>0.3796054599425523</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4634978762704181</v>
+        <v>0.4677847535609346</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>36831</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>27026</v>
+        <v>26679</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>47679</v>
+        <v>48332</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1762357086928933</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1293178301906484</v>
+        <v>0.1276608894902143</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2281418519994677</v>
+        <v>0.231265682307645</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>55</v>
@@ -3415,19 +3415,19 @@
         <v>62010</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>47883</v>
+        <v>49577</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>77290</v>
+        <v>77701</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1863985082803285</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1439333638296639</v>
+        <v>0.1490233664565347</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2323289512803664</v>
+        <v>0.2335633180397814</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>94</v>
@@ -3436,19 +3436,19 @@
         <v>98841</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>82500</v>
+        <v>81041</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>118446</v>
+        <v>115975</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1824774544793771</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1523080169230725</v>
+        <v>0.1496154209139604</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2186703445098228</v>
+        <v>0.214108776106573</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>49492</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>38505</v>
+        <v>39129</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>61061</v>
+        <v>62305</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.236817246136949</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1842482807479533</v>
+        <v>0.1872333813998187</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2921742918338457</v>
+        <v>0.2981266568242664</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>75</v>
@@ -3486,19 +3486,19 @@
         <v>86601</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>72014</v>
+        <v>69771</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>104744</v>
+        <v>103422</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2603140944598206</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2164697285812105</v>
+        <v>0.2097256722861496</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.314850978323949</v>
+        <v>0.3108781062392524</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>127</v>
@@ -3507,19 +3507,19 @@
         <v>136092</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>116387</v>
+        <v>113625</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>157925</v>
+        <v>156491</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2512484422609242</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2148696111133769</v>
+        <v>0.209769597619337</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2915551063825306</v>
+        <v>0.2889081914914551</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>2822</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>8316</v>
+        <v>7806</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01350266718134702</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.003885836044561152</v>
+        <v>0.003902594537180681</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03979324740355399</v>
+        <v>0.03735297503631161</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>6</v>
@@ -3557,19 +3557,19 @@
         <v>7120</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2324</v>
+        <v>2560</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14310</v>
+        <v>15657</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02140195200197639</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.00698642792747549</v>
+        <v>0.007694780092449273</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04301567377848213</v>
+        <v>0.0470641611764134</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>9</v>
@@ -3578,19 +3578,19 @@
         <v>9942</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4881</v>
+        <v>4671</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>18923</v>
+        <v>19281</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01835421692619855</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.009010726548853935</v>
+        <v>0.008624091836655015</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03493578057856376</v>
+        <v>0.03559541379997893</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>22605</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>15169</v>
+        <v>15200</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>33157</v>
+        <v>32542</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1081667125186952</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07258579673033506</v>
+        <v>0.07273344755157048</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1586562983691764</v>
+        <v>0.1557151005303465</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>40</v>
@@ -3628,19 +3628,19 @@
         <v>45587</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>33341</v>
+        <v>33878</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>60703</v>
+        <v>59328</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.137030450652309</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1002202445508709</v>
+        <v>0.1018344071571175</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1824679002785142</v>
+        <v>0.1783355347332987</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>64</v>
@@ -3649,19 +3649,19 @@
         <v>68192</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>52609</v>
+        <v>53098</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>83126</v>
+        <v>84536</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1258941226016802</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09712518594264996</v>
+        <v>0.0980271375365963</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1534644373329217</v>
+        <v>0.1560667996180725</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>724483</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>677497</v>
+        <v>677667</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>778085</v>
+        <v>769995</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2213075122811612</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2069549011124601</v>
+        <v>0.2070066424150565</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2376814546335518</v>
+        <v>0.2352100132424031</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>786</v>
@@ -3774,19 +3774,19 @@
         <v>816577</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>767567</v>
+        <v>770611</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>863299</v>
+        <v>871040</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2421753913149438</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2276403593130411</v>
+        <v>0.2285429834919507</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2560318280965766</v>
+        <v>0.2583277312519254</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1498</v>
@@ -3795,19 +3795,19 @@
         <v>1541060</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1474062</v>
+        <v>1472045</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1613087</v>
+        <v>1611913</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2318956245979349</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2218139457833402</v>
+        <v>0.2215104669357088</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2427341591074329</v>
+        <v>0.2425574754911471</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>820108</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>760893</v>
+        <v>772085</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>861300</v>
+        <v>870142</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2505180359397672</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2324297461333462</v>
+        <v>0.235848623401619</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2631010834586212</v>
+        <v>0.2658021746224558</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>784</v>
@@ -3845,19 +3845,19 @@
         <v>807154</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>759379</v>
+        <v>758292</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>861109</v>
+        <v>853661</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.239380802959718</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2252120884450076</v>
+        <v>0.2248895675124819</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2553824110412132</v>
+        <v>0.2531735492723048</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1598</v>
@@ -3866,19 +3866,19 @@
         <v>1627262</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1559752</v>
+        <v>1557974</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1693026</v>
+        <v>1699596</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2448671370870407</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2347084528229199</v>
+        <v>0.2344409286211461</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2547632417842835</v>
+        <v>0.2557518410740228</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>1289055</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1230321</v>
+        <v>1235527</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1342761</v>
+        <v>1345568</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3937672127283456</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3758258725243531</v>
+        <v>0.3774162045444616</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4101729627071936</v>
+        <v>0.4110301977429154</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1288</v>
@@ -3916,19 +3916,19 @@
         <v>1307342</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1254275</v>
+        <v>1253696</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1362900</v>
+        <v>1363949</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3877235113251706</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3719850693871244</v>
+        <v>0.3718136179923971</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4042005476875749</v>
+        <v>0.4045117366271131</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2547</v>
@@ -3937,19 +3937,19 @@
         <v>2596397</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2515851</v>
+        <v>2520027</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2683495</v>
+        <v>2674953</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.390700710897361</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3785803696578031</v>
+        <v>0.3792087727953408</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4038070045586737</v>
+        <v>0.4025216880533961</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>166396</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>143850</v>
+        <v>140179</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>192962</v>
+        <v>192874</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05082881461507417</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.0439419357014987</v>
+        <v>0.04282055158519431</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05894419347991647</v>
+        <v>0.05891726963519871</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>180</v>
@@ -3987,19 +3987,19 @@
         <v>183926</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>159619</v>
+        <v>159211</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>210710</v>
+        <v>211674</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.05454778614650102</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04733892249639565</v>
+        <v>0.04721779002850112</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.06249117570499311</v>
+        <v>0.0627771170405521</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>337</v>
@@ -4008,19 +4008,19 @@
         <v>350322</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>317521</v>
+        <v>310891</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>388350</v>
+        <v>388059</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.05271577630456282</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.04777991606800655</v>
+        <v>0.04678226727530748</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0584380980915531</v>
+        <v>0.05839436232514673</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>273606</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>242680</v>
+        <v>244523</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>306011</v>
+        <v>309233</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.08357842443565186</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07413141483703078</v>
+        <v>0.07469434800536628</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09347697305605443</v>
+        <v>0.09446127469385758</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>252</v>
@@ -4058,19 +4058,19 @@
         <v>256842</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>226242</v>
+        <v>227283</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>286847</v>
+        <v>289696</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.0761725082536666</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.06709761611735426</v>
+        <v>0.06740623652291755</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.08507126427638934</v>
+        <v>0.08591621483619143</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>521</v>
@@ -4079,19 +4079,19 @@
         <v>530448</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>486153</v>
+        <v>489820</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>580052</v>
+        <v>577670</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.07982075111310061</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07315528524682638</v>
+        <v>0.07370722017964022</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.08728505234353333</v>
+        <v>0.08692657557321584</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>109701</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90494</v>
+        <v>92422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128634</v>
+        <v>127301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2415533993471429</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1992612391557929</v>
+        <v>0.2035069905194705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2832442580135312</v>
+        <v>0.2803093080697185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -4447,19 +4447,19 @@
         <v>94439</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77877</v>
+        <v>78880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111605</v>
+        <v>112430</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2200341772451616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1814455678425873</v>
+        <v>0.1837819562686034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2600301246357947</v>
+        <v>0.2619518133599269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -4468,19 +4468,19 @@
         <v>204140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179233</v>
+        <v>180027</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>229478</v>
+        <v>230820</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.231097627784574</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2029015454725376</v>
+        <v>0.2038012081483686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2597815856067499</v>
+        <v>0.2613016378947823</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>165434</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145074</v>
+        <v>146511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>185226</v>
+        <v>187279</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3642746818296438</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.319443212410677</v>
+        <v>0.3226087906969594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4078560536593626</v>
+        <v>0.4123751041504872</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -4518,19 +4518,19 @@
         <v>137468</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119820</v>
+        <v>119332</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156397</v>
+        <v>158140</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.320286506705587</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2791689008263663</v>
+        <v>0.2780318727638507</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3643894287250869</v>
+        <v>0.3684504464401586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>295</v>
@@ -4539,19 +4539,19 @@
         <v>302902</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>274743</v>
+        <v>272980</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>331978</v>
+        <v>330738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3429016829186347</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3110246580374644</v>
+        <v>0.3090283196992762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3758179030340687</v>
+        <v>0.3744143404635973</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>114497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97347</v>
+        <v>96425</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134244</v>
+        <v>136455</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2521157624927016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2143510275102409</v>
+        <v>0.2123214376234842</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2955954725648353</v>
+        <v>0.3004641331096673</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -4589,19 +4589,19 @@
         <v>139875</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122288</v>
+        <v>121859</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>161842</v>
+        <v>160462</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3258961499606728</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2849197301849642</v>
+        <v>0.2839193446135963</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3770754440927064</v>
+        <v>0.3738620839633388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>252</v>
@@ -4610,19 +4610,19 @@
         <v>254373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>228198</v>
+        <v>227326</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>282843</v>
+        <v>281336</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2879642180505768</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2583327945969947</v>
+        <v>0.2573454424292903</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3201945066680875</v>
+        <v>0.318488289127634</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>19010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11912</v>
+        <v>11786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29390</v>
+        <v>29585</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04185865888038111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0262303106066555</v>
+        <v>0.02595275522878586</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0647141378498259</v>
+        <v>0.06514326010857086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -4660,19 +4660,19 @@
         <v>19139</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11656</v>
+        <v>11309</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28712</v>
+        <v>29407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04459104481066831</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02715750352474484</v>
+        <v>0.02634979998354579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06689610383268829</v>
+        <v>0.06851445599108778</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -4681,19 +4681,19 @@
         <v>38149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27317</v>
+        <v>27529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52091</v>
+        <v>51806</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04318627207069386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03092426894188212</v>
+        <v>0.03116386082517847</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05897051978127547</v>
+        <v>0.05864723684486928</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>45504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34854</v>
+        <v>33924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60891</v>
+        <v>60904</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1001974974501306</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07674671290871865</v>
+        <v>0.07469884985782928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.134077876344165</v>
+        <v>0.1341062311244134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -4731,19 +4731,19 @@
         <v>38281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26729</v>
+        <v>28481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51394</v>
+        <v>52799</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08919212127791032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06227599923601147</v>
+        <v>0.06635703195084462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1197432649086113</v>
+        <v>0.1230166530658989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -4752,19 +4752,19 @@
         <v>83786</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67645</v>
+        <v>67606</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>102151</v>
+        <v>101853</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09485019917552062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07657845450301769</v>
+        <v>0.07653331352489369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1156406345995703</v>
+        <v>0.1153037706374134</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>196221</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174768</v>
+        <v>172971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221647</v>
+        <v>220830</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2867954138748253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2554402922420234</v>
+        <v>0.2528133810589205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3239580899156468</v>
+        <v>0.3227634773643315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -4877,19 +4877,19 @@
         <v>182745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161239</v>
+        <v>160183</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>207471</v>
+        <v>208668</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2999803073365351</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2646771594207761</v>
+        <v>0.2629444337860359</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3405676456463895</v>
+        <v>0.3425321857887551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>358</v>
@@ -4898,19 +4898,19 @@
         <v>378966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>347683</v>
+        <v>348244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>415176</v>
+        <v>411851</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2930056084815904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2688181544562779</v>
+        <v>0.2692520156050744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3210017300437173</v>
+        <v>0.3184306745542262</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>231759</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207649</v>
+        <v>207313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255088</v>
+        <v>257389</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3387372054498263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3034983177650578</v>
+        <v>0.3030078865631025</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3728353030748728</v>
+        <v>0.3761976376340548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -4948,19 +4948,19 @@
         <v>225383</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199991</v>
+        <v>202183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250186</v>
+        <v>249083</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.369970746269202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3282890495249946</v>
+        <v>0.3318874667423525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4106855924451975</v>
+        <v>0.4088751126790728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>443</v>
@@ -4969,19 +4969,19 @@
         <v>457142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>422747</v>
+        <v>423870</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491013</v>
+        <v>491009</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3534484632472412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3268555177204303</v>
+        <v>0.3277240381782311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3796370214775736</v>
+        <v>0.3796339623609056</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>164808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>143486</v>
+        <v>143354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>186408</v>
+        <v>186510</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2408829053247212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.209717912645425</v>
+        <v>0.2095255387432143</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2724529424282941</v>
+        <v>0.2726013799066327</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>111</v>
@@ -5019,19 +5019,19 @@
         <v>120310</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>100846</v>
+        <v>102898</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>142248</v>
+        <v>141903</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1974918611658892</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1655416423600675</v>
+        <v>0.1689095894715426</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2335038826969334</v>
+        <v>0.2329373683600433</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>277</v>
@@ -5040,19 +5040,19 @@
         <v>285119</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>253601</v>
+        <v>258653</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>316588</v>
+        <v>317487</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2204453622228645</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1960769215258481</v>
+        <v>0.1999825099695478</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2447764849805381</v>
+        <v>0.2454718280752919</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>17067</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10167</v>
+        <v>10287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27297</v>
+        <v>28654</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02494571691218647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01486049748417098</v>
+        <v>0.01503479750476215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03989768124302214</v>
+        <v>0.04188077863106754</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5090,19 +5090,19 @@
         <v>26116</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17529</v>
+        <v>16765</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38302</v>
+        <v>38448</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04286993272998536</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02877389872847562</v>
+        <v>0.02752058742196066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06287305576831828</v>
+        <v>0.06311332266691365</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -5111,19 +5111,19 @@
         <v>43183</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31877</v>
+        <v>31209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58937</v>
+        <v>57502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03338817181145819</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02464615680109354</v>
+        <v>0.02412992068567709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04556805784957731</v>
+        <v>0.044458551778927</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>74329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59012</v>
+        <v>59533</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95579</v>
+        <v>94449</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1086387584384407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08625103258045366</v>
+        <v>0.08701253269594046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1396979035640003</v>
+        <v>0.1380459635133243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -5161,19 +5161,19 @@
         <v>54637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41484</v>
+        <v>40913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70329</v>
+        <v>68301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08968715249838835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06809746655854435</v>
+        <v>0.06715898057400607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.115445897294921</v>
+        <v>0.1121170946183805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>116</v>
@@ -5182,19 +5182,19 @@
         <v>128966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>106169</v>
+        <v>108128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152252</v>
+        <v>154314</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09971239423684577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08208698395911022</v>
+        <v>0.08360159725808779</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1177168465338434</v>
+        <v>0.1193110635527518</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>214832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>189469</v>
+        <v>190856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242854</v>
+        <v>241478</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3163416490141601</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2789943167191768</v>
+        <v>0.2810369040021462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3576047974404901</v>
+        <v>0.3555778296518057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>263</v>
@@ -5307,19 +5307,19 @@
         <v>283379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>257530</v>
+        <v>256102</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>312141</v>
+        <v>311467</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4020523252212418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3653779820795611</v>
+        <v>0.3633512474362566</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4428592195314493</v>
+        <v>0.441902003849401</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>466</v>
@@ -5328,19 +5328,19 @@
         <v>498211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>460220</v>
+        <v>462228</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>535443</v>
+        <v>536928</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3599933579058345</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3325415158672758</v>
+        <v>0.3339926370357703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3868955927120816</v>
+        <v>0.3879689424960792</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>241682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>216163</v>
+        <v>214003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>268232</v>
+        <v>267149</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3558778725513608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3183019998837308</v>
+        <v>0.3151205386908177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3949736628142939</v>
+        <v>0.39337940990866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>208</v>
@@ -5378,19 +5378,19 @@
         <v>218677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194647</v>
+        <v>193436</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>247681</v>
+        <v>244056</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3102546477783568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2761613537849694</v>
+        <v>0.2744432515034828</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3514047689632695</v>
+        <v>0.3462615666503302</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -5399,19 +5399,19 @@
         <v>460359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423025</v>
+        <v>424112</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>495807</v>
+        <v>499098</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3326423572734397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3056656330448118</v>
+        <v>0.3064510462468896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3582558431838096</v>
+        <v>0.3606339493536916</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>153966</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>130667</v>
+        <v>132910</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>176956</v>
+        <v>177464</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2267164479227789</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1924078397556462</v>
+        <v>0.1957105839410877</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2605689276412921</v>
+        <v>0.2613176844488634</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>129</v>
@@ -5449,19 +5449,19 @@
         <v>137065</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>115101</v>
+        <v>117606</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>157533</v>
+        <v>159578</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.194465116517368</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1633032412185071</v>
+        <v>0.1668569238795496</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2235041210578789</v>
+        <v>0.2264055537045999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>277</v>
@@ -5470,19 +5470,19 @@
         <v>291032</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>260631</v>
+        <v>260118</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>321581</v>
+        <v>324831</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2102911227220241</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1883246876862153</v>
+        <v>0.1879539516500033</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2323652085222578</v>
+        <v>0.2347139136215652</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>10618</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5639</v>
+        <v>4991</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19264</v>
+        <v>18934</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01563536298845668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008303372389568757</v>
+        <v>0.007349711726093204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02836616395580094</v>
+        <v>0.02788011845901664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5520,19 +5520,19 @@
         <v>15823</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9500</v>
+        <v>9045</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27357</v>
+        <v>26700</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02244904234782482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01347868147456465</v>
+        <v>0.01283302108828443</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03881409367605797</v>
+        <v>0.03788165226851094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -5541,19 +5541,19 @@
         <v>26441</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17479</v>
+        <v>17093</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39150</v>
+        <v>38650</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01910551117813779</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01263013313760649</v>
+        <v>0.01235120766995545</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02828862614403102</v>
+        <v>0.02792772289280567</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>58016</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45448</v>
+        <v>44042</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77524</v>
+        <v>74383</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08542866752324355</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06692241565139269</v>
+        <v>0.06485268298523486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1141544402212171</v>
+        <v>0.109529835749284</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -5591,19 +5591,19 @@
         <v>49887</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37539</v>
+        <v>37347</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67143</v>
+        <v>67941</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07077886813520853</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0532600474347097</v>
+        <v>0.05298650132953551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09526162913371471</v>
+        <v>0.09639348320346514</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>102</v>
@@ -5612,19 +5612,19 @@
         <v>107903</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>88520</v>
+        <v>90048</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129340</v>
+        <v>130653</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07796765092056392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0639616953506341</v>
+        <v>0.06506640731953213</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09345744005662925</v>
+        <v>0.09440644118137261</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>205452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>180655</v>
+        <v>181221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>230898</v>
+        <v>233162</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3342760219965243</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2939316589856414</v>
+        <v>0.2948515621472529</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3756778269748474</v>
+        <v>0.3793608931194751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -5737,19 +5737,19 @@
         <v>257587</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>233471</v>
+        <v>231841</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>285175</v>
+        <v>285288</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.419609665233554</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3803248635167475</v>
+        <v>0.3776697199397978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4645499047629244</v>
+        <v>0.464734697760762</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>411</v>
@@ -5758,19 +5758,19 @@
         <v>463039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>429112</v>
+        <v>425880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>502434</v>
+        <v>496553</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3769170236197579</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3493004093675872</v>
+        <v>0.3466695494040822</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4089854048212563</v>
+        <v>0.404197561230505</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>220236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196499</v>
+        <v>193797</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247269</v>
+        <v>245060</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3583310978047999</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3197091382025528</v>
+        <v>0.3153129608767279</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4023132236073476</v>
+        <v>0.3987203299064101</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>166</v>
@@ -5808,19 +5808,19 @@
         <v>190706</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>167429</v>
+        <v>167953</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>216771</v>
+        <v>216086</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3106601500350613</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2727413382443164</v>
+        <v>0.2735957036921177</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3531198701665396</v>
+        <v>0.352005132313702</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>367</v>
@@ -5829,19 +5829,19 @@
         <v>410942</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>378334</v>
+        <v>376201</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>448550</v>
+        <v>445321</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3345100480509037</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3079662854714242</v>
+        <v>0.30623010810771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3651231788606799</v>
+        <v>0.36249420920101</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>96677</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78799</v>
+        <v>78148</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>118093</v>
+        <v>117502</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1572968169710272</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1282080962486022</v>
+        <v>0.1271489556702965</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1921404113425616</v>
+        <v>0.191178504916813</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -5879,19 +5879,19 @@
         <v>103383</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>84321</v>
+        <v>85412</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>123981</v>
+        <v>124883</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1684104523895892</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1373589270020148</v>
+        <v>0.1391365766754394</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.201965195827873</v>
+        <v>0.203435101350713</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>171</v>
@@ -5900,19 +5900,19 @@
         <v>200060</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>174287</v>
+        <v>173576</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>229393</v>
+        <v>231431</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1628502719501682</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1418707003532506</v>
+        <v>0.1412917901084808</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1867273381376015</v>
+        <v>0.1883865308439545</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>23277</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15169</v>
+        <v>14939</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33995</v>
+        <v>34587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03787187512927788</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0246809763121043</v>
+        <v>0.02430664750153737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05531096383354908</v>
+        <v>0.0562736955227431</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -5950,19 +5950,19 @@
         <v>13580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7100</v>
+        <v>7349</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23466</v>
+        <v>23743</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02212240039982159</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01156668911232016</v>
+        <v>0.01197084414983171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03822651441683598</v>
+        <v>0.03867797566073884</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -5971,19 +5971,19 @@
         <v>36857</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25716</v>
+        <v>25794</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50611</v>
+        <v>50928</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03000190319290567</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.020933152876194</v>
+        <v>0.02099623435260147</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04119733866838143</v>
+        <v>0.04145564708084966</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>68975</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52496</v>
+        <v>52779</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>87068</v>
+        <v>87511</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1122241880983708</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08541257035087421</v>
+        <v>0.08587218951275172</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1416623215653623</v>
+        <v>0.1423834133793899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -6021,19 +6021,19 @@
         <v>48617</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35027</v>
+        <v>36083</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63972</v>
+        <v>64979</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07919733194197398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05705920758569646</v>
+        <v>0.05877853195179864</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.104211208982007</v>
+        <v>0.1058502301600187</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>102</v>
@@ -6042,19 +6042,19 @@
         <v>117592</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>96254</v>
+        <v>96679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142046</v>
+        <v>139548</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09572075318626452</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07835161995693257</v>
+        <v>0.07869718786892244</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1156261059296255</v>
+        <v>0.1135928942011599</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>178258</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>158150</v>
+        <v>159654</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>200239</v>
+        <v>202680</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4151045817071223</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3682786912548859</v>
+        <v>0.3717831610676348</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4662921007718619</v>
+        <v>0.4719749696176464</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>194</v>
@@ -6167,19 +6167,19 @@
         <v>211752</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>189831</v>
+        <v>188560</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>235852</v>
+        <v>233407</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4761430948933156</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.426853228583401</v>
+        <v>0.4239952036500496</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5303345901945131</v>
+        <v>0.5248369707095325</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>355</v>
@@ -6188,19 +6188,19 @@
         <v>390010</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>358635</v>
+        <v>356518</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>421074</v>
+        <v>422441</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4461577986283828</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4102659860341856</v>
+        <v>0.4078445874330232</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4816943479340527</v>
+        <v>0.4832578429258939</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>136220</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>116348</v>
+        <v>116032</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>157863</v>
+        <v>155973</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3172110878306088</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2709366517049069</v>
+        <v>0.270200849073189</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3676118926985303</v>
+        <v>0.3632095543356071</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>127</v>
@@ -6238,19 +6238,19 @@
         <v>139740</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>119981</v>
+        <v>121364</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>161155</v>
+        <v>162452</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3142177398600738</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2697886174201035</v>
+        <v>0.272898306710272</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3623725152272436</v>
+        <v>0.3652883181825136</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>254</v>
@@ -6259,19 +6259,19 @@
         <v>275959</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>245618</v>
+        <v>252106</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>303765</v>
+        <v>306228</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3156882282621542</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2809785640962143</v>
+        <v>0.2884004051658988</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.347496956715615</v>
+        <v>0.3503149155343982</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>56574</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43929</v>
+        <v>42594</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>74053</v>
+        <v>72058</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1317424011866593</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1022959694171743</v>
+        <v>0.09918715788325894</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1724450276909103</v>
+        <v>0.1677988265297464</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>41</v>
@@ -6309,19 +6309,19 @@
         <v>46039</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33879</v>
+        <v>33944</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61895</v>
+        <v>60654</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1035220087999103</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07617961944448294</v>
+        <v>0.07632697207663414</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1391762347085228</v>
+        <v>0.1363862665009081</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>93</v>
@@ -6330,19 +6330,19 @@
         <v>102613</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>83105</v>
+        <v>83219</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>122852</v>
+        <v>124736</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1173853351205903</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09506952151566647</v>
+        <v>0.09519958582122896</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1405382558110337</v>
+        <v>0.1426937528404457</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>10566</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5145</v>
+        <v>5269</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19921</v>
+        <v>21159</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02460589586383319</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01198140289184473</v>
+        <v>0.01226993882375631</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04639066804246103</v>
+        <v>0.04927232471228162</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -6380,19 +6380,19 @@
         <v>4035</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12599</v>
+        <v>11179</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.009072750779884191</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00230929930070426</v>
+        <v>0.002282636115534196</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02833031027990829</v>
+        <v>0.02513770785202122</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>12</v>
@@ -6401,19 +6401,19 @@
         <v>14601</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8126</v>
+        <v>7135</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>26432</v>
+        <v>24859</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01670344053550803</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009296207734493505</v>
+        <v>0.00816261521025476</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03023747646582462</v>
+        <v>0.0284375623649265</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>47811</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35174</v>
+        <v>35651</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61484</v>
+        <v>62635</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1113360334117763</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08190929799648537</v>
+        <v>0.08301908435444647</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1431767052506102</v>
+        <v>0.145856931277435</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -6451,19 +6451,19 @@
         <v>43158</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>30288</v>
+        <v>31642</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>58227</v>
+        <v>57133</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09704440566681602</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06810518793660675</v>
+        <v>0.07114894205197012</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1309288351662575</v>
+        <v>0.128468473419392</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>82</v>
@@ -6472,19 +6472,19 @@
         <v>90969</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>73947</v>
+        <v>71219</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>110107</v>
+        <v>109365</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1040651974533647</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0845929334990513</v>
+        <v>0.08147266844877378</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1259581238965277</v>
+        <v>0.1251101218206546</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>135517</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>118017</v>
+        <v>117232</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>154334</v>
+        <v>152477</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4374525941408381</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3809629007871949</v>
+        <v>0.3784300635315636</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.498193987698717</v>
+        <v>0.4922005222065097</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>180</v>
@@ -6597,19 +6597,19 @@
         <v>183940</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>165595</v>
+        <v>166437</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>202660</v>
+        <v>202223</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5222735540729646</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4701845268402255</v>
+        <v>0.4725768218177609</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5754252650971541</v>
+        <v>0.5741843145349668</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>304</v>
@@ -6618,19 +6618,19 @@
         <v>319457</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>292547</v>
+        <v>295127</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>347489</v>
+        <v>349940</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4825798167632591</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4419279788443704</v>
+        <v>0.4458264935506329</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5249249876094125</v>
+        <v>0.5286274720032808</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>86553</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>71009</v>
+        <v>70024</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>104095</v>
+        <v>102686</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2793963260754943</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2292207074530972</v>
+        <v>0.2260391542939567</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3360213064155946</v>
+        <v>0.331473794323593</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>84</v>
@@ -6668,19 +6668,19 @@
         <v>86240</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>69371</v>
+        <v>71145</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>102179</v>
+        <v>103764</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2448676116728913</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1969690584506173</v>
+        <v>0.2020081563412338</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2901252045964897</v>
+        <v>0.2946256211138535</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>163</v>
@@ -6689,19 +6689,19 @@
         <v>172793</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>150582</v>
+        <v>149781</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>195896</v>
+        <v>197470</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2610260437424587</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.227472586881493</v>
+        <v>0.2262635026866935</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2959255694983717</v>
+        <v>0.2983036451385933</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>34826</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25182</v>
+        <v>24394</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>48064</v>
+        <v>47697</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1124192756607839</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08128805266296549</v>
+        <v>0.0787439941287247</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1551521767192522</v>
+        <v>0.1539687325718998</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -6739,19 +6739,19 @@
         <v>29400</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>19662</v>
+        <v>19684</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>41802</v>
+        <v>41308</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08347653380504926</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0558267766905548</v>
+        <v>0.0558901944298613</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1186915214761357</v>
+        <v>0.1172889106276295</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>60</v>
@@ -6760,19 +6760,19 @@
         <v>64226</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>50137</v>
+        <v>50096</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>81454</v>
+        <v>79669</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09702089351476552</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07573788455733117</v>
+        <v>0.07567555713901362</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1230460650633861</v>
+        <v>0.120349435210963</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>4960</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1026</v>
+        <v>1891</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12714</v>
+        <v>13322</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01601115184168769</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003310480074798669</v>
+        <v>0.00610409831742621</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04104149958556525</v>
+        <v>0.04300394019041989</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -6810,19 +6810,19 @@
         <v>9054</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3999</v>
+        <v>4106</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16663</v>
+        <v>16119</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02570876729777053</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01135382650146776</v>
+        <v>0.01165767169416072</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04731299839764058</v>
+        <v>0.04576758775756022</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>13</v>
@@ -6831,19 +6831,19 @@
         <v>14014</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8101</v>
+        <v>7883</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>24720</v>
+        <v>24016</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02117056588207898</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01223811227929838</v>
+        <v>0.01190773315929492</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03734247741402034</v>
+        <v>0.03627920486367762</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>47930</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>35626</v>
+        <v>36616</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>62159</v>
+        <v>63483</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.154720652281196</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1150032981605517</v>
+        <v>0.1181993207927405</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2006514601236843</v>
+        <v>0.2049258011458616</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>42</v>
@@ -6881,19 +6881,19 @@
         <v>43557</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>32918</v>
+        <v>32015</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>58280</v>
+        <v>56760</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1236735331513243</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09346618550226543</v>
+        <v>0.09090366042044382</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1654771389974374</v>
+        <v>0.1611611491059523</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>85</v>
@@ -6902,19 +6902,19 @@
         <v>91487</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>73283</v>
+        <v>74948</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>112147</v>
+        <v>110719</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1382026800974377</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1107028106386184</v>
+        <v>0.1132184440152322</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1694114943274883</v>
+        <v>0.1672548207224911</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>142796</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>125101</v>
+        <v>126020</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>159528</v>
+        <v>159584</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5737439631380011</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5026466209207404</v>
+        <v>0.506339166865318</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6409691729274536</v>
+        <v>0.641195911206789</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>195</v>
@@ -7027,19 +7027,19 @@
         <v>215111</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>194799</v>
+        <v>194750</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>236875</v>
+        <v>234693</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5575353128813828</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5048907621226607</v>
+        <v>0.5047623472854177</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6139448704835818</v>
+        <v>0.6082875085880919</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>327</v>
@@ -7048,19 +7048,19 @@
         <v>357908</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>331172</v>
+        <v>332822</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>382896</v>
+        <v>383322</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5638911197558762</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5217685455572761</v>
+        <v>0.5243679025254946</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.603260284106677</v>
+        <v>0.6039322756960666</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>43855</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31037</v>
+        <v>32401</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>58169</v>
+        <v>57587</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1762063395421219</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1247052494268297</v>
+        <v>0.1301843730760306</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2337169216929898</v>
+        <v>0.2313789639959924</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>60</v>
@@ -7098,19 +7098,19 @@
         <v>65308</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>50935</v>
+        <v>51715</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>83340</v>
+        <v>82405</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1692686415209571</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1320165697009612</v>
+        <v>0.1340380739770956</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.216004995392998</v>
+        <v>0.2135812198253992</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>99</v>
@@ -7119,19 +7119,19 @@
         <v>109163</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>92018</v>
+        <v>90154</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>131683</v>
+        <v>128311</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1719890820312997</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1449756732884641</v>
+        <v>0.1420393295202564</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2074696652589234</v>
+        <v>0.2021568097467025</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>19837</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12510</v>
+        <v>11779</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>31698</v>
+        <v>30631</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07970532246906609</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.050264747218154</v>
+        <v>0.04732596047132768</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1273599909281538</v>
+        <v>0.123073807340074</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>21</v>
@@ -7169,19 +7169,19 @@
         <v>25203</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>16158</v>
+        <v>15701</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>38098</v>
+        <v>37514</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06532258101143107</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04187937849155494</v>
+        <v>0.04069518451586713</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09874420836500944</v>
+        <v>0.09723047293014236</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>37</v>
@@ -7190,19 +7190,19 @@
         <v>45041</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>32827</v>
+        <v>32671</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>62022</v>
+        <v>60762</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07096240453672263</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05171931662305525</v>
+        <v>0.05147422100448457</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09771658854942152</v>
+        <v>0.09573108950087861</v>
       </c>
     </row>
     <row r="43">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7795</v>
+        <v>6536</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.008679043012172495</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03131916377197197</v>
+        <v>0.02626052088597213</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>5</v>
@@ -7240,19 +7240,19 @@
         <v>5291</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2097</v>
+        <v>2102</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>11712</v>
+        <v>11666</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01371296599470551</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.005433995554214971</v>
+        <v>0.005447795234636323</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03035598615480566</v>
+        <v>0.0302377757911638</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>7</v>
@@ -7261,19 +7261,19 @@
         <v>7451</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3184</v>
+        <v>3190</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>14369</v>
+        <v>14925</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01173904208423122</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.005017103478187655</v>
+        <v>0.005026292649973419</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02263875064371189</v>
+        <v>0.02351448507537579</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>40236</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>28919</v>
+        <v>28708</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>55007</v>
+        <v>55824</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1616653318386384</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1161942724389097</v>
+        <v>0.115347320340638</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2210142492603796</v>
+        <v>0.2242948429804837</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>67</v>
@@ -7311,19 +7311,19 @@
         <v>74912</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>59581</v>
+        <v>59690</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>94324</v>
+        <v>91142</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1941604985915236</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.154423801857631</v>
+        <v>0.154706919765749</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2444745789376749</v>
+        <v>0.2362275479429031</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>99</v>
@@ -7332,19 +7332,19 @@
         <v>115148</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>93575</v>
+        <v>94645</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>135430</v>
+        <v>137089</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1814183515918702</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1474297902626459</v>
+        <v>0.1491157808822264</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2133732603571131</v>
+        <v>0.2159862961869956</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>1182777</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1129782</v>
+        <v>1121264</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1239178</v>
+        <v>1241585</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3458246646623953</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.330329741402027</v>
+        <v>0.327839336038084</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3623153574557287</v>
+        <v>0.363019126350519</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1323</v>
@@ -7457,19 +7457,19 @@
         <v>1428954</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1364636</v>
+        <v>1372663</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1486468</v>
+        <v>1491309</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.4036778630850485</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3855081284583264</v>
+        <v>0.3877757735430021</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.4199254347745292</v>
+        <v>0.4212932324227387</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2421</v>
@@ -7478,19 +7478,19 @@
         <v>2611731</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2521136</v>
+        <v>2526735</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2701031</v>
+        <v>2693354</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3752486427889811</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3622320841855491</v>
+        <v>0.36303659728223</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3880790413123228</v>
+        <v>0.3869761573852544</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>1125739</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1070633</v>
+        <v>1067554</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1187937</v>
+        <v>1182451</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3291477384162402</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3130355049761751</v>
+        <v>0.3121352679756363</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3473334826982661</v>
+        <v>0.345729234450667</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>992</v>
@@ -7528,19 +7528,19 @@
         <v>1063522</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1004942</v>
+        <v>1005550</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1120110</v>
+        <v>1116489</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3004437227473817</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2838950574859589</v>
+        <v>0.2840667682052607</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3164299002251754</v>
+        <v>0.3154068654904033</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2060</v>
@@ -7549,19 +7549,19 @@
         <v>2189261</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2111394</v>
+        <v>2110386</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2275510</v>
+        <v>2271583</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3145489547324852</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3033611814879836</v>
+        <v>0.303216376698882</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3269409817064404</v>
+        <v>0.326376776713329</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>641187</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>596775</v>
+        <v>596425</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>686906</v>
+        <v>689125</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1874726475027081</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1744872700588718</v>
+        <v>0.1743848334377899</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2008401706842722</v>
+        <v>0.201488895435769</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>555</v>
@@ -7599,19 +7599,19 @@
         <v>601275</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>552965</v>
+        <v>552844</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>643265</v>
+        <v>644950</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1698594262713763</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1562119536094292</v>
+        <v>0.1561778493066819</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1817215342141155</v>
+        <v>0.1821976926337774</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1167</v>
@@ -7620,19 +7620,19 @@
         <v>1242462</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1178239</v>
+        <v>1176226</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1309216</v>
+        <v>1308005</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.178514611467029</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1692871196407516</v>
+        <v>0.1689979437325887</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1881057436850593</v>
+        <v>0.1879316652424283</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>87659</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>70770</v>
+        <v>68318</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>110326</v>
+        <v>105027</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02563004488953345</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02069192477920714</v>
+        <v>0.01997506935699362</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03225761958853558</v>
+        <v>0.03070822722139702</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>87</v>
@@ -7670,19 +7670,19 @@
         <v>93038</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>76068</v>
+        <v>74849</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>119153</v>
+        <v>114415</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.02628305790689645</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02148906831282539</v>
+        <v>0.02114481488088762</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.03366071715841504</v>
+        <v>0.03232221123898226</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>169</v>
@@ -7691,19 +7691,19 @@
         <v>180697</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>152513</v>
+        <v>154711</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>210513</v>
+        <v>210614</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02596216552007997</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02191283494216852</v>
+        <v>0.02222861492692229</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03024614337478056</v>
+        <v>0.03026057178234674</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>382802</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>345291</v>
+        <v>345345</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>422613</v>
+        <v>426007</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1119249045291229</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1009573519830866</v>
+        <v>0.1009733108895158</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1235649941364001</v>
+        <v>0.1245574675651264</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>325</v>
@@ -7741,19 +7741,19 @@
         <v>353049</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>316207</v>
+        <v>315986</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>393318</v>
+        <v>391926</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.09973592998929708</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.08932802467961544</v>
+        <v>0.08926557621437088</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1111117895183922</v>
+        <v>0.1107185796640801</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>667</v>
@@ -7762,19 +7762,19 @@
         <v>735850</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>687436</v>
+        <v>684120</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>794441</v>
+        <v>791710</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1057256254914248</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0987695142347871</v>
+        <v>0.09829314541114481</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1141437684741541</v>
+        <v>0.1137514886496517</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>113894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96864</v>
+        <v>93975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132727</v>
+        <v>132451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2735659000805474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2326623500496709</v>
+        <v>0.225721538270074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3188019233519757</v>
+        <v>0.318139509638208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -8130,19 +8130,19 @@
         <v>107155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91362</v>
+        <v>90370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125045</v>
+        <v>124165</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2707614688150549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2308548200916215</v>
+        <v>0.2283495592883986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3159654057657041</v>
+        <v>0.3137422307804704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>213</v>
@@ -8151,19 +8151,19 @@
         <v>221049</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199076</v>
+        <v>196320</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>247362</v>
+        <v>245696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2721992117712311</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2451416113228275</v>
+        <v>0.2417475216135225</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3046017202458986</v>
+        <v>0.3025491858099668</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>145958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126311</v>
+        <v>125102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167938</v>
+        <v>167225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3505824325068996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.303392384125366</v>
+        <v>0.3004867383936255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4033768498496638</v>
+        <v>0.4016633447259831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>145</v>
@@ -8201,19 +8201,19 @@
         <v>141235</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>122590</v>
+        <v>124061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>161272</v>
+        <v>160569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3568753614721931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3097627255352339</v>
+        <v>0.3134805087360023</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4075049595452473</v>
+        <v>0.4057287164408084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>282</v>
@@ -8222,19 +8222,19 @@
         <v>287193</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>261696</v>
+        <v>260147</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>315223</v>
+        <v>316976</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3536491763968464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3222523553114866</v>
+        <v>0.3203439340050757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3881652584830851</v>
+        <v>0.3903234248763258</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>114371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97040</v>
+        <v>98270</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>133383</v>
+        <v>133176</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2747130527796521</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2330847984565333</v>
+        <v>0.2360394794376713</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.320378508089886</v>
+        <v>0.3198816523941397</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -8272,19 +8272,19 @@
         <v>116706</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>100419</v>
+        <v>101348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>134328</v>
+        <v>135245</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.29489442454377</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2537411749739013</v>
+        <v>0.2560866448479128</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3394214259671313</v>
+        <v>0.3417396675319733</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>228</v>
@@ -8293,19 +8293,19 @@
         <v>231077</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>203569</v>
+        <v>204158</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>256410</v>
+        <v>256931</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2845480753724211</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2506748570160786</v>
+        <v>0.2513997245621368</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3157425937354136</v>
+        <v>0.3163843384749315</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>18467</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11388</v>
+        <v>11272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27430</v>
+        <v>28749</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04435599273338357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02735291409881977</v>
+        <v>0.02707432581337588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06588573864636554</v>
+        <v>0.06905259462183759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -8343,19 +8343,19 @@
         <v>12224</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6508</v>
+        <v>6578</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20114</v>
+        <v>20872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03088900055346181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01644576646752232</v>
+        <v>0.01662017562658302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05082410320621213</v>
+        <v>0.0527399786725315</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -8364,19 +8364,19 @@
         <v>30691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20980</v>
+        <v>21328</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41897</v>
+        <v>43320</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03779310028512768</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02583443240089957</v>
+        <v>0.02626341899291088</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05159155586604584</v>
+        <v>0.05334476287072092</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>23640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15202</v>
+        <v>15666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35245</v>
+        <v>34876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05678262189951726</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03651544851425104</v>
+        <v>0.03762913937299976</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08465633623316325</v>
+        <v>0.08376937410137873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -8414,19 +8414,19 @@
         <v>18434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10717</v>
+        <v>11492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29035</v>
+        <v>28152</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04657974461552011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02707999325946119</v>
+        <v>0.02903902219683266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07336517653304546</v>
+        <v>0.07113398557630307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -8435,19 +8435,19 @@
         <v>42074</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30125</v>
+        <v>31379</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55825</v>
+        <v>56291</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05181043617437373</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03709622033657246</v>
+        <v>0.03864003159889171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06874274041657347</v>
+        <v>0.06931661443563403</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>161305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140425</v>
+        <v>139342</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183727</v>
+        <v>187069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2741631576957544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2386747273089689</v>
+        <v>0.2368344264205445</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3122726947877248</v>
+        <v>0.3179535873099297</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -8560,19 +8560,19 @@
         <v>159813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>135734</v>
+        <v>139877</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180353</v>
+        <v>179442</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2835848333625909</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2408572078356996</v>
+        <v>0.248209298134819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3200335410604061</v>
+        <v>0.318416563701888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>313</v>
@@ -8581,19 +8581,19 @@
         <v>321117</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>292941</v>
+        <v>290121</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>349819</v>
+        <v>353112</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2787725366616458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2543124024857328</v>
+        <v>0.2518640646995757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3036894620995778</v>
+        <v>0.3065487005846109</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>237655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>215299</v>
+        <v>214847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262038</v>
+        <v>262454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4039323282637608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3659344894050532</v>
+        <v>0.3651669991841748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4453752411332733</v>
+        <v>0.446082555678448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -8631,19 +8631,19 @@
         <v>221860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199312</v>
+        <v>201545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247302</v>
+        <v>243948</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3936876608987169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3536767594046044</v>
+        <v>0.3576383364785602</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4388341915552247</v>
+        <v>0.43288110840233</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>460</v>
@@ -8652,19 +8652,19 @@
         <v>459515</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>429186</v>
+        <v>424380</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>490688</v>
+        <v>490228</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3989203159705332</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3725913608092356</v>
+        <v>0.3684190548750701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4259831005084979</v>
+        <v>0.425583970773755</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>132466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>109829</v>
+        <v>113007</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>152494</v>
+        <v>153911</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2251465165116244</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1866718593438909</v>
+        <v>0.1920737626673498</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2591875824170584</v>
+        <v>0.2615962368451754</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>142</v>
@@ -8702,19 +8702,19 @@
         <v>135300</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>115323</v>
+        <v>116339</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>155193</v>
+        <v>156390</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2400875727451139</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2046389626652392</v>
+        <v>0.206442125165101</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.275388425993647</v>
+        <v>0.2775111328196362</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>269</v>
@@ -8723,19 +8723,19 @@
         <v>267765</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>242039</v>
+        <v>240047</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>294036</v>
+        <v>295292</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2324561494013725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2101219916508247</v>
+        <v>0.2083928088075303</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2552627644934773</v>
+        <v>0.2563526923568266</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>17711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10014</v>
+        <v>10428</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27388</v>
+        <v>27963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03010346477280824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01702115903975607</v>
+        <v>0.01772323454154577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04654975472478518</v>
+        <v>0.04752774244233578</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -8773,19 +8773,19 @@
         <v>15773</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9314</v>
+        <v>9343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25507</v>
+        <v>25536</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02798948485298144</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01652688152006329</v>
+        <v>0.01657892475400923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04526093388025226</v>
+        <v>0.04531318990332164</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -8794,19 +8794,19 @@
         <v>33485</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24372</v>
+        <v>23360</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46183</v>
+        <v>45963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0290692395541388</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02115826384915073</v>
+        <v>0.02027935998085451</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04009285947566521</v>
+        <v>0.03990222259869484</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>39216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27950</v>
+        <v>28811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53572</v>
+        <v>53410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0666545327560522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04750614572195722</v>
+        <v>0.04896948065043074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09105425608268507</v>
+        <v>0.09077825429130909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -8844,19 +8844,19 @@
         <v>30798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21454</v>
+        <v>22141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42727</v>
+        <v>42860</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05465044814059687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03806990775176834</v>
+        <v>0.03928897282533093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07581888124412456</v>
+        <v>0.07605360386315897</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>69</v>
@@ -8865,19 +8865,19 @@
         <v>70014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54992</v>
+        <v>56140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86006</v>
+        <v>89295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06078175841230969</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04774026451288908</v>
+        <v>0.04873744075330635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07466496776493503</v>
+        <v>0.07751962068558162</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>212538</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>188758</v>
+        <v>187271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>238140</v>
+        <v>236643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3205626749862324</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2846971758845978</v>
+        <v>0.2824538584176867</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3591767515591705</v>
+        <v>0.3569199449264736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>220</v>
@@ -8990,19 +8990,19 @@
         <v>219369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>193623</v>
+        <v>197749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243061</v>
+        <v>244092</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.332925132760697</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2938519060386573</v>
+        <v>0.3001138657329148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3688815552206452</v>
+        <v>0.3704468234026198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>421</v>
@@ -9011,19 +9011,19 @@
         <v>431907</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>399008</v>
+        <v>395568</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>465576</v>
+        <v>466368</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3267247213178003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3018378065996585</v>
+        <v>0.2992359092399839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3521949487503347</v>
+        <v>0.3527941253367364</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>232020</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>205681</v>
+        <v>207394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>256353</v>
+        <v>255744</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3499466627514173</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3102202908657734</v>
+        <v>0.3128043093515165</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3866474927403405</v>
+        <v>0.3857287032971455</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>270</v>
@@ -9061,19 +9061,19 @@
         <v>268366</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>243639</v>
+        <v>244441</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294271</v>
+        <v>294826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4072860568312733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3697593493325699</v>
+        <v>0.3709754154934282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4466004515371345</v>
+        <v>0.4474428931902841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>495</v>
@@ -9082,19 +9082,19 @@
         <v>500386</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>464341</v>
+        <v>468886</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>536091</v>
+        <v>534216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3785273875061601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3512601663589003</v>
+        <v>0.3546987946223074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4055375148646088</v>
+        <v>0.4041187341282538</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>146236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>127503</v>
+        <v>125563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>171207</v>
+        <v>169362</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.22056285278507</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1923075431609264</v>
+        <v>0.1893818952108659</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2582252392820372</v>
+        <v>0.255441454287921</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -9132,19 +9132,19 @@
         <v>124467</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105401</v>
+        <v>106209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>145648</v>
+        <v>146703</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1888974459608294</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1599612325648746</v>
+        <v>0.1611880233010211</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2210427359270009</v>
+        <v>0.2226437468281999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>267</v>
@@ -9153,19 +9153,19 @@
         <v>270703</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>242337</v>
+        <v>243504</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>301351</v>
+        <v>299416</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2047792838929718</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.183321231147538</v>
+        <v>0.1842039235026947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2279635000912022</v>
+        <v>0.2264997119381602</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>19758</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12188</v>
+        <v>12239</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29600</v>
+        <v>29190</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02980059270097712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01838310586277038</v>
+        <v>0.01845983559679746</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04464382291056546</v>
+        <v>0.04402580763714251</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -9203,19 +9203,19 @@
         <v>9434</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4690</v>
+        <v>4796</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17136</v>
+        <v>17784</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01431803047689772</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007117110763837376</v>
+        <v>0.007278964371567484</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02600615471418833</v>
+        <v>0.02699055489531218</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -9224,19 +9224,19 @@
         <v>29193</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19902</v>
+        <v>19424</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40527</v>
+        <v>41235</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02208333554251601</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01505526169120374</v>
+        <v>0.01469368090812555</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03065767643791623</v>
+        <v>0.03119332290209742</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>52463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40124</v>
+        <v>39201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68566</v>
+        <v>69026</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07912721677630323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06051787342136704</v>
+        <v>0.05912529263730461</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1034147141761497</v>
+        <v>0.1041088237953603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -9274,19 +9274,19 @@
         <v>37277</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26203</v>
+        <v>26819</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51515</v>
+        <v>51882</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05657333397030252</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03976774483365588</v>
+        <v>0.0407018513382036</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07818230559615262</v>
+        <v>0.07873846797463807</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -9295,19 +9295,19 @@
         <v>89739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70318</v>
+        <v>72646</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108266</v>
+        <v>111739</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06788527174055181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05319384022049109</v>
+        <v>0.05495470067475353</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08190012278716875</v>
+        <v>0.08452710607140276</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>222912</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>198181</v>
+        <v>196891</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248188</v>
+        <v>246817</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3455824049888995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3072409110767197</v>
+        <v>0.3052415699772387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3847673560094514</v>
+        <v>0.3826420597113274</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>199</v>
@@ -9420,19 +9420,19 @@
         <v>212932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>187296</v>
+        <v>189303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>236723</v>
+        <v>236812</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3291386756023635</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2895115071347529</v>
+        <v>0.2926141108211138</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3659123939309062</v>
+        <v>0.3660502145958638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>401</v>
@@ -9441,19 +9441,19 @@
         <v>435845</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>402680</v>
+        <v>401192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>469900</v>
+        <v>470667</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3373484225413774</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3116787472829136</v>
+        <v>0.3105267701635149</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3637073636970904</v>
+        <v>0.3643009545580816</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>235091</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210508</v>
+        <v>210032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>261265</v>
+        <v>259853</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3644630024759922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.326351921527011</v>
+        <v>0.3256139322617257</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.405040942781689</v>
+        <v>0.4028521714903365</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>229</v>
@@ -9491,19 +9491,19 @@
         <v>247293</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>223545</v>
+        <v>221915</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274478</v>
+        <v>273496</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3822516059046698</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3455432291913901</v>
+        <v>0.3430230562086719</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.424272157348168</v>
+        <v>0.4227539858777229</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>442</v>
@@ -9512,19 +9512,19 @@
         <v>482384</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>444659</v>
+        <v>445616</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>518572</v>
+        <v>517697</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3733704130125334</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3441706361309206</v>
+        <v>0.3449113112375978</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4013799779194652</v>
+        <v>0.4007028150082036</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>119059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>99891</v>
+        <v>99845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>141005</v>
+        <v>140737</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1845774986574067</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1548619256593369</v>
+        <v>0.1547899346051289</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2186001884484518</v>
+        <v>0.2181856009738543</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>127</v>
@@ -9562,19 +9562,19 @@
         <v>136056</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>116437</v>
+        <v>115635</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>158209</v>
+        <v>157262</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2103075088797972</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.179981971504877</v>
+        <v>0.1787413521911567</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2445512219531028</v>
+        <v>0.2430860810704841</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>233</v>
@@ -9583,19 +9583,19 @@
         <v>255115</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>225399</v>
+        <v>228475</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>286758</v>
+        <v>286679</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1974614647921934</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1744615264992235</v>
+        <v>0.1768424479895688</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2219536557948084</v>
+        <v>0.2218922357490587</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>17777</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10673</v>
+        <v>10569</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28596</v>
+        <v>28120</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02756012909250003</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01654613825781472</v>
+        <v>0.01638491113496215</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04433305525057025</v>
+        <v>0.04359450363187944</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -9633,19 +9633,19 @@
         <v>8696</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4286</v>
+        <v>4182</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16353</v>
+        <v>16464</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01344177477238333</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006625695000878358</v>
+        <v>0.006463810715028329</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02527743994551556</v>
+        <v>0.02544975020894499</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -9654,19 +9654,19 @@
         <v>26473</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17095</v>
+        <v>17622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38609</v>
+        <v>38547</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02049054779940704</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01323137020953191</v>
+        <v>0.01363958922948698</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02988353922344154</v>
+        <v>0.02983585827051893</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>50195</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37438</v>
+        <v>37734</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>65763</v>
+        <v>64674</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07781696478520157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05804076622251775</v>
+        <v>0.0584991795946687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1019530170513853</v>
+        <v>0.1002642094573205</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -9704,19 +9704,19 @@
         <v>41961</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30807</v>
+        <v>30110</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57180</v>
+        <v>57226</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06486043484078623</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04761941040127386</v>
+        <v>0.04654286849897022</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08838582559524286</v>
+        <v>0.08845702136118096</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>81</v>
@@ -9725,19 +9725,19 @@
         <v>92155</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>75148</v>
+        <v>75188</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114385</v>
+        <v>113296</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07132915185448879</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05816524308246285</v>
+        <v>0.05819609322866267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08853531884607252</v>
+        <v>0.08769259932048454</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>175413</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>153829</v>
+        <v>152732</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>197530</v>
+        <v>199851</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3677770747355216</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.322522857297419</v>
+        <v>0.3202233458578269</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4141491829891803</v>
+        <v>0.4190143193210301</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>165</v>
@@ -9850,19 +9850,19 @@
         <v>192411</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>171331</v>
+        <v>168201</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>216509</v>
+        <v>213812</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3889982338048212</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.34638127652852</v>
+        <v>0.3400529345873507</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4377183441007465</v>
+        <v>0.4322665606256182</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>320</v>
@@ -9871,19 +9871,19 @@
         <v>367824</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>335622</v>
+        <v>334226</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>400664</v>
+        <v>400380</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3785807017054937</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3454371734353964</v>
+        <v>0.3439999342661835</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4123811013172767</v>
+        <v>0.4120895965240826</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>178384</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>155869</v>
+        <v>157041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>200586</v>
+        <v>201204</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3740059307997277</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3268015483504224</v>
+        <v>0.329257647941594</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4205561736469474</v>
+        <v>0.4218527572339477</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>151</v>
@@ -9921,19 +9921,19 @@
         <v>172111</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>151495</v>
+        <v>151207</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>195047</v>
+        <v>196556</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3479586086903089</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3062787498265228</v>
+        <v>0.3056973498642379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3943281222516108</v>
+        <v>0.3973800119383167</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>309</v>
@@ -9942,19 +9942,19 @@
         <v>350495</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>316234</v>
+        <v>321437</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>383055</v>
+        <v>384578</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3607453190339937</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3254824599395434</v>
+        <v>0.3308377570735651</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3942573501268986</v>
+        <v>0.3958246692659783</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>68787</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54256</v>
+        <v>53480</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>85882</v>
+        <v>86439</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.144220709455817</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1137561876301259</v>
+        <v>0.1121273888934283</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1800627638762356</v>
+        <v>0.1812321731355382</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>68</v>
@@ -9992,19 +9992,19 @@
         <v>77777</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>63585</v>
+        <v>62344</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>96517</v>
+        <v>97770</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1572429561667065</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1285506293757926</v>
+        <v>0.1260418011661776</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1951293094860523</v>
+        <v>0.1976620249564918</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>131</v>
@@ -10013,19 +10013,19 @@
         <v>146564</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>125808</v>
+        <v>123569</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>171210</v>
+        <v>169728</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1508502953005849</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1294875045133219</v>
+        <v>0.1271829457810567</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1762173991589102</v>
+        <v>0.1746912898378358</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>7400</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3051</v>
+        <v>3129</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13875</v>
+        <v>14939</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01551522001994072</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006396466481364495</v>
+        <v>0.006560167589418634</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02909009845766615</v>
+        <v>0.03132270635357353</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -10063,19 +10063,19 @@
         <v>13147</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6914</v>
+        <v>7300</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22660</v>
+        <v>22096</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02657937875645719</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01397715254663116</v>
+        <v>0.01475833982052895</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0458110512745721</v>
+        <v>0.04467093415666542</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -10084,19 +10084,19 @@
         <v>20547</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13249</v>
+        <v>12755</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31591</v>
+        <v>31417</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02114794928489442</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01363641302275643</v>
+        <v>0.01312750876833552</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03251485176557802</v>
+        <v>0.03233615630302807</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>46971</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34081</v>
+        <v>34890</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61874</v>
+        <v>63084</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09848106498899299</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07145512237644398</v>
+        <v>0.07315182831175414</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1297274016438418</v>
+        <v>0.1322649129510944</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -10134,19 +10134,19 @@
         <v>39185</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28381</v>
+        <v>28210</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52662</v>
+        <v>52871</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07922082258170611</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05737884635816082</v>
+        <v>0.0570320243767562</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1064665354781838</v>
+        <v>0.1068893691108967</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>75</v>
@@ -10155,19 +10155,19 @@
         <v>86156</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>68705</v>
+        <v>68385</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107355</v>
+        <v>106029</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08867573467503327</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07071421062629564</v>
+        <v>0.07038486527406515</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1104943929255428</v>
+        <v>0.1091301605994012</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>136599</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>118962</v>
+        <v>120563</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>153863</v>
+        <v>158079</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4085742040878599</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3558234669533271</v>
+        <v>0.3606105144026879</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.460212809834026</v>
+        <v>0.4728223333093514</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>130</v>
@@ -10280,19 +10280,19 @@
         <v>140081</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>121819</v>
+        <v>122209</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>159711</v>
+        <v>159354</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3718152356487439</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3233425000027095</v>
+        <v>0.3243777733275727</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4239165006907709</v>
+        <v>0.4229691809214397</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>262</v>
@@ -10301,19 +10301,19 @@
         <v>276680</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>250911</v>
+        <v>252382</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>304209</v>
+        <v>304244</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3890982879888193</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3528591021360966</v>
+        <v>0.354927182880903</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4278128118846025</v>
+        <v>0.4278622435761454</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>110431</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>94159</v>
+        <v>92196</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>126317</v>
+        <v>128241</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.330303955498567</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2816352292531804</v>
+        <v>0.2757622102141012</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3778214764221428</v>
+        <v>0.3835752674907287</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>132</v>
@@ -10351,19 +10351,19 @@
         <v>140228</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>122424</v>
+        <v>120975</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>158726</v>
+        <v>160814</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3722033519390127</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.324946480114526</v>
+        <v>0.321101040201853</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4213042826935626</v>
+        <v>0.4268444509732563</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>240</v>
@@ -10372,19 +10372,19 @@
         <v>250658</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>226202</v>
+        <v>225322</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>278191</v>
+        <v>274446</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3525034122386589</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3181102316275048</v>
+        <v>0.3168727753463942</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3912226261803137</v>
+        <v>0.3859563839373363</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>39010</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27979</v>
+        <v>28296</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>53612</v>
+        <v>53326</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1166817317600046</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08368718035336117</v>
+        <v>0.08463589946021081</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1603555171252745</v>
+        <v>0.1594996963597094</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>33</v>
@@ -10422,19 +10422,19 @@
         <v>35676</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>24753</v>
+        <v>25336</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>48961</v>
+        <v>49103</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09469527508376645</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06570147256408339</v>
+        <v>0.06724760180661393</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1299562309889458</v>
+        <v>0.1303333545648795</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>70</v>
@@ -10443,19 +10443,19 @@
         <v>74687</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>60482</v>
+        <v>59469</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>94854</v>
+        <v>94123</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1050327001433845</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08505647609175328</v>
+        <v>0.08363147608352958</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1333935745949235</v>
+        <v>0.1323661005026255</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>6937</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2960</v>
+        <v>2915</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13907</v>
+        <v>13460</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02074792188144786</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.00885283532796555</v>
+        <v>0.00871943467994119</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04159599101414026</v>
+        <v>0.04025988102104163</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -10493,19 +10493,19 @@
         <v>8747</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3980</v>
+        <v>4005</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16405</v>
+        <v>15506</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02321793965501849</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01056320884426178</v>
+        <v>0.01062969331763641</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04354378248330749</v>
+        <v>0.04115614343003492</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>16</v>
@@ -10514,19 +10514,19 @@
         <v>15684</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>9740</v>
+        <v>8904</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>25395</v>
+        <v>24486</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02205660547524562</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01369789857123443</v>
+        <v>0.01252191860946308</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03571396330729722</v>
+        <v>0.03443556075963268</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>41354</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30571</v>
+        <v>31095</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>54870</v>
+        <v>55129</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1236921867721205</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09144078269421586</v>
+        <v>0.09300699274011749</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1641205738576576</v>
+        <v>0.1648936179954081</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>49</v>
@@ -10564,19 +10564,19 @@
         <v>52017</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>39657</v>
+        <v>40049</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>67017</v>
+        <v>68173</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1380681976734585</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1052607304596797</v>
+        <v>0.1063013169494616</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1778819492354685</v>
+        <v>0.1809510737571143</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>90</v>
@@ -10585,19 +10585,19 @@
         <v>93371</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>77334</v>
+        <v>74725</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>113014</v>
+        <v>111764</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1313089941538917</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1087559160086245</v>
+        <v>0.1050868899490293</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1589324287359085</v>
+        <v>0.1571743683714323</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>101731</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>88274</v>
+        <v>88703</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>116471</v>
+        <v>116857</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3971846261913293</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3446456758397237</v>
+        <v>0.3463203572563535</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4547304865876278</v>
+        <v>0.4562404772651996</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>137</v>
@@ -10710,19 +10710,19 @@
         <v>183267</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>159204</v>
+        <v>159793</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>207369</v>
+        <v>205908</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4594337212338354</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3991103181637461</v>
+        <v>0.4005863655410792</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5198537544847962</v>
+        <v>0.5161930895967217</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>258</v>
@@ -10731,19 +10731,19 @@
         <v>284998</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>258090</v>
+        <v>259271</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>313459</v>
+        <v>312476</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.435092911420022</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3940137589912657</v>
+        <v>0.3958166585825897</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4785414354976232</v>
+        <v>0.477040855781498</v>
       </c>
     </row>
     <row r="41">
@@ -10760,19 +10760,19 @@
         <v>81667</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>69057</v>
+        <v>68033</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>95745</v>
+        <v>95713</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3188468065665365</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2696160955498683</v>
+        <v>0.2656187645342296</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3738107172859058</v>
+        <v>0.3736868380577891</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>73</v>
@@ -10781,19 +10781,19 @@
         <v>99530</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>79693</v>
+        <v>80989</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>119189</v>
+        <v>120422</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2495121689692759</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1997834471229896</v>
+        <v>0.2030324487327825</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2987953312481393</v>
+        <v>0.3018859218477167</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>170</v>
@@ -10802,19 +10802,19 @@
         <v>181196</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>159426</v>
+        <v>157161</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>207545</v>
+        <v>206113</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.276623586831852</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2433870596195203</v>
+        <v>0.2399291604542811</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3168489203983217</v>
+        <v>0.3146629141870761</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>20818</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13824</v>
+        <v>14013</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>29850</v>
+        <v>30134</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0812773383510545</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05397232726212138</v>
+        <v>0.05470895365277924</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1165418925476653</v>
+        <v>0.117650758004566</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>23</v>
@@ -10852,19 +10852,19 @@
         <v>28237</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>18137</v>
+        <v>17465</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>40720</v>
+        <v>40390</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0707871130647454</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04546892687941944</v>
+        <v>0.04378387567664713</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1020815205846919</v>
+        <v>0.1012527409560908</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>48</v>
@@ -10873,19 +10873,19 @@
         <v>49054</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>36017</v>
+        <v>35955</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>63410</v>
+        <v>63350</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07488902938053681</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05498540943245814</v>
+        <v>0.05489086512250208</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09680520134520175</v>
+        <v>0.09671380471307033</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>5050</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2439</v>
+        <v>1709</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>11221</v>
+        <v>10711</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01971749337731124</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009521746130880401</v>
+        <v>0.0066730367105479</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04380783728837463</v>
+        <v>0.0418180519169158</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -10923,19 +10923,19 @@
         <v>4678</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>13658</v>
+        <v>13247</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0117270167544103</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.003081915129114743</v>
+        <v>0.003098323206936848</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03423817714846634</v>
+        <v>0.03320823032534419</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>9</v>
@@ -10944,19 +10944,19 @@
         <v>9728</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4568</v>
+        <v>4700</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>18141</v>
+        <v>18819</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01485147457451105</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.00697302952393567</v>
+        <v>0.007175578123616969</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02769427564115675</v>
+        <v>0.02872995962237889</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>46865</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>36404</v>
+        <v>36590</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>59482</v>
+        <v>59386</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1829737355137684</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.142132115347498</v>
+        <v>0.1428578034869257</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2322335004643397</v>
+        <v>0.2318576517253453</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>64</v>
@@ -10994,19 +10994,19 @@
         <v>83186</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>65412</v>
+        <v>65829</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>101750</v>
+        <v>101847</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.208539979977733</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1639809672686396</v>
+        <v>0.165027460400119</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2550776876431637</v>
+        <v>0.2553200901636266</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>116</v>
@@ -11015,19 +11015,19 @@
         <v>130051</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>110044</v>
+        <v>110072</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>153706</v>
+        <v>153819</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1985429977930782</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1679986853661025</v>
+        <v>0.1680409482736955</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.234655472535375</v>
+        <v>0.2348278373719215</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>1124392</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1072443</v>
+        <v>1069910</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1177448</v>
+        <v>1181367</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3326456989429528</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3172769654867429</v>
+        <v>0.3165274210181125</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3483420091427182</v>
+        <v>0.3495016057259051</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1119</v>
@@ -11140,19 +11140,19 @@
         <v>1215028</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1154677</v>
+        <v>1157649</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1271862</v>
+        <v>1274197</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3436719918886894</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3266017332320784</v>
+        <v>0.3274423877569613</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3597475574332836</v>
+        <v>0.3604081637576998</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2188</v>
@@ -11161,19 +11161,19 @@
         <v>2339420</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2260650</v>
+        <v>2260329</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2420785</v>
+        <v>2427427</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3382826362448725</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3268924456516616</v>
+        <v>0.3268460358938266</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3500481822071307</v>
+        <v>0.3510085503906062</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>1221205</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1167232</v>
+        <v>1161934</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1278282</v>
+        <v>1278992</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3612873536528339</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3453199375972479</v>
+        <v>0.3437523738830108</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3781734155812551</v>
+        <v>0.3783833117903197</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1229</v>
@@ -11211,19 +11211,19 @@
         <v>1290623</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1234392</v>
+        <v>1230987</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1351525</v>
+        <v>1349022</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3650542296908955</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3491491520356378</v>
+        <v>0.3481860435821739</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3822802477428884</v>
+        <v>0.3815723075214861</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2398</v>
@@ -11232,19 +11232,19 @@
         <v>2511828</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2423726</v>
+        <v>2429871</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2591137</v>
+        <v>2593201</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3632130819238996</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3504734345513727</v>
+        <v>0.3513620222384567</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3746813070371124</v>
+        <v>0.3749796988491228</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>640747</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>591956</v>
+        <v>597519</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>684561</v>
+        <v>689112</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.189561761426917</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1751273614586236</v>
+        <v>0.176772986550831</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2025240151371406</v>
+        <v>0.203870276602072</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>640</v>
@@ -11282,19 +11282,19 @@
         <v>654219</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>606469</v>
+        <v>604266</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>699264</v>
+        <v>701854</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1850466548822706</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.171540430892033</v>
+        <v>0.170917350107366</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1977875423424326</v>
+        <v>0.1985200667263802</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1246</v>
@@ -11303,19 +11303,19 @@
         <v>1294966</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1227468</v>
+        <v>1231973</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1355708</v>
+        <v>1361398</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1872535176110749</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1774932452682313</v>
+        <v>0.1781445861399866</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1960368839143775</v>
+        <v>0.1968596709081328</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>93101</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>75403</v>
+        <v>75193</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>114998</v>
+        <v>114172</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02754336229360265</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02230750374324713</v>
+        <v>0.02224562197038066</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03402171301997294</v>
+        <v>0.03377736410724266</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>71</v>
@@ -11353,19 +11353,19 @@
         <v>72700</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>57585</v>
+        <v>57888</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>91869</v>
+        <v>90454</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.02056337197676043</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01628798208241646</v>
+        <v>0.01637356845978168</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02598536353974899</v>
+        <v>0.02558497258968032</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>160</v>
@@ -11374,19 +11374,19 @@
         <v>165801</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>142913</v>
+        <v>141148</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>195117</v>
+        <v>192487</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02397500364598847</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02066541609089089</v>
+        <v>0.02041010349181643</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02821413596508283</v>
+        <v>0.02783386673906402</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>300704</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>271035</v>
+        <v>270154</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>337597</v>
+        <v>338615</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.08896182368369365</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.08018447088446394</v>
+        <v>0.079923579890933</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09987633613039683</v>
+        <v>0.100177517297617</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>271</v>
@@ -11424,19 +11424,19 @@
         <v>302858</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>270995</v>
+        <v>269911</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>336663</v>
+        <v>341107</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.08566375156138423</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.07665118593734943</v>
+        <v>0.07634452074839831</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09522540419341831</v>
+        <v>0.09648261429186326</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>555</v>
@@ -11445,19 +11445,19 @@
         <v>603562</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>555556</v>
+        <v>557123</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>658279</v>
+        <v>654618</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.08727576057416454</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.08033397531674485</v>
+        <v>0.08056054248156815</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.09518780331339728</v>
+        <v>0.0946585407824648</v>
       </c>
     </row>
     <row r="51">
